--- a/DonutShop/Results.xlsx
+++ b/DonutShop/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yhayh\Desktop\Education\COSC 311\DonutShop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086AF74D-39CB-4618-A2B5-98E02E31FE8E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E614D6-B991-4901-B536-07CE244B39E8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1850" windowWidth="17960" windowHeight="15460" xr2:uid="{713AFAC7-84BB-4B55-8622-3FEE3232CC34}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="12">
   <si>
     <t>Customers with Completed service</t>
   </si>
@@ -48,47 +48,32 @@
     <t>Maximum</t>
   </si>
   <si>
-    <t>Experiment</t>
-  </si>
-  <si>
     <t>Donut Shop Experiment</t>
   </si>
   <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>H8</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>L4</t>
-  </si>
-  <si>
-    <t>L8</t>
-  </si>
-  <si>
-    <t>H = Mean 2</t>
-  </si>
-  <si>
-    <t>L = Mean 0.25</t>
+    <t>Servers</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>Heavy</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Heavy has Mean 2</t>
+  </si>
+  <si>
+    <t>Low has Mean 0.25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +84,13 @@
     <font>
       <i/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -178,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -197,10 +189,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -517,230 +512,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B657C7C9-8010-4FB2-9007-1999AAAC530A}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="6" t="s">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>401</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>381</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>311</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
         <v>15</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>230</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>253</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C8">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>183</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>63</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="G9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>56</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>401</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>381</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>311</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>230</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>253</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>7</v>
-      </c>
-      <c r="F7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>183</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>63</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>21</v>
-      </c>
-      <c r="C10">
-        <v>56</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
